--- a/TestDataset.xlsx
+++ b/TestDataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="100">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0774123461</t>
   </si>
   <si>
-    <t xml:space="preserve">john77</t>
+    <t xml:space="preserve">john87</t>
   </si>
   <si>
     <t xml:space="preserve">John$*</t>
   </si>
   <si>
-    <t xml:space="preserve">john77@gmail.com</t>
+    <t xml:space="preserve">john87@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">0774123462</t>
@@ -179,10 +179,13 @@
     <t xml:space="preserve">0774abcdef</t>
   </si>
   <si>
-    <t xml:space="preserve">john32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john31@gmail.com</t>
+    <t xml:space="preserve">john42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john41@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">077412346</t>
   </si>
   <si>
     <t xml:space="preserve">john23</t>
@@ -453,11 +456,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.63"/>
   </cols>
@@ -531,7 +534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.05"/>
@@ -559,7 +562,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -570,10 +573,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -581,10 +584,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -592,10 +595,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -603,10 +606,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -614,7 +617,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -642,7 +645,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
   </cols>
@@ -660,7 +663,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -671,7 +674,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -698,11 +701,11 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.8"/>
@@ -1012,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -1032,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -1043,7 +1046,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -1055,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1089,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.11"/>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1155,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>41</v>
@@ -1164,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>4</v>
@@ -1173,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>19</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1199,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>41</v>
@@ -1208,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>4</v>
@@ -1217,16 +1220,16 @@
         <v>4</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1251,9 +1254,9 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.55"/>
@@ -1261,16 +1264,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1279,13 +1282,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1293,16 +1296,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1310,13 +1313,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1324,16 +1327,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1341,13 +1344,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -1355,16 +1358,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1372,13 +1375,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1386,16 +1389,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1403,13 +1406,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1417,16 +1420,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1434,13 +1437,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1448,16 +1451,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -1465,65 +1468,65 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,23 +1698,23 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1719,16 +1722,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1736,16 +1739,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1753,16 +1756,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1770,19 +1773,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1810,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.98"/>
   </cols>
@@ -1820,13 +1823,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,100 +1837,100 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1955,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="18.06"/>
   </cols>
@@ -1962,41 +1965,41 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2024,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -2033,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -2044,53 +2047,53 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -2098,13 +2101,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2132,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.09"/>
@@ -2141,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -2149,24 +2152,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataset.xlsx
+++ b/TestDataset.xlsx
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0774123461</t>
   </si>
   <si>
-    <t xml:space="preserve">john87</t>
+    <t xml:space="preserve">john107</t>
   </si>
   <si>
     <t xml:space="preserve">John$*</t>
   </si>
   <si>
-    <t xml:space="preserve">john87@gmail.com</t>
+    <t xml:space="preserve">john107@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">0774123462</t>
@@ -456,11 +456,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.63"/>
   </cols>
@@ -530,11 +530,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.05"/>
@@ -641,11 +641,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
   </cols>
@@ -701,11 +701,11 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.8"/>
@@ -1085,19 +1085,19 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,11 +1250,11 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.28"/>
@@ -1694,11 +1694,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
   </cols>
@@ -1806,11 +1806,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.8"/>
@@ -1951,11 +1951,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="18.06"/>
   </cols>
@@ -2020,11 +2020,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -2128,11 +2128,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.09"/>
